--- a/data/toc/toc_pcn.xlsx
+++ b/data/toc/toc_pcn.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/toc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{04405090-59D7-4F36-89CF-0C27D58B8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2888333E-3550-44CE-AE3B-D9E1CF3E0660}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="8_{04405090-59D7-4F36-89CF-0C27D58B8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B09EAE-5EBF-4B47-8209-9943832B155B}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
     <sheet name="nodes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$E$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$E$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$E$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>E</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7BAC2E13-6786-4C4C-8625-F9571EA174E6}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{7BAC2E13-6786-4C4C-8625-F9571EA174E6}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>E:</t>
         </r>
@@ -63,14 +63,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 qué sería distinto aquí frente acompanamiento?</t>
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{64BB5A44-0DAA-4309-BD37-49ACCC764781}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{64BB5A44-0DAA-4309-BD37-49ACCC764781}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>E:</t>
         </r>
@@ -87,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E:
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{86ABB1EA-F194-42BD-81C0-07FAB4C736B8}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{86ABB1EA-F194-42BD-81C0-07FAB4C736B8}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>E:</t>
         </r>
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 desde aquí yo asumiría que eso no se logra, pero puede ser valioso investigar las perspectivas de que eso se logre, desde el punto de vista de los distintos actores. Qué anticipan que les podría impedir o dificular </t>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>from</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Red de colaboración entre organizaciones</t>
-  </si>
-  <si>
-    <t>Recursos</t>
   </si>
   <si>
     <t>Relacionamiento organizacional???</t>
@@ -262,21 +259,8 @@
 - percepción sobre la necesidad del acompanamiento, por administradoras y beneficiarias</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>- Cuál es el alcance y extensión del acompañamiento?, qué hacen específicamente?, qué tan frecuente?
-- Es uniforme el acompanamiento?, o depende de las necesidades de cada organización?, hacen un diagnóstico inicial para determinar el alcance del acompanamiento?
-- Es necesario el acompanamiento?, es pertinente el acompanamiento?</t>
-  </si>
-  <si>
     <t>- total recursos administrados
 - total recursos que fluyeron</t>
-  </si>
-  <si>
-    <t>- Fluyeron los recursos?
-- Estaban condicionados?
-- cash o especie?</t>
   </si>
   <si>
     <t>box</t>
@@ -293,11 +277,6 @@
   <si>
     <t>- # de personas relacionadas, por organización (pintar network)
 - # de organizaciones relacionadas</t>
-  </si>
-  <si>
-    <t>- Se implementaron las recomendaciones
-- cuáles sí, cuáles no?
-- por qué no se implementaron las que no?</t>
   </si>
   <si>
     <t>- % de implementación por recomendación y organización
@@ -404,15 +383,116 @@
 -</t>
   </si>
   <si>
+    <t>- Cuál es el alcance y extensión del acompañamiento?, qué hacen específicamente?, qué tan frecuente se realiza?
+- Es uniforme el acompanamiento?, o depende de las necesidades de cada organización?, hacen un diagnóstico inicial para determinar el alcance del acompanamiento?
+- Es necesario el acompanamiento?, es pertinente el acompanamiento?
+- Qué dificultades o barreras enfrenta el acompañamiento? (comunicación, relaciones personales, interés)</t>
+  </si>
+  <si>
+    <t>Recursos humanos</t>
+  </si>
+  <si>
+    <t>Recursos tecnológicos</t>
+  </si>
+  <si>
+    <t>Recursos financieros</t>
+  </si>
+  <si>
+    <t>- Percepciones sobre la carga de trabajo y distribución del equipo.
+- Nivel de especialización del personal en relación con las necesidades.
+- Dificultades enfrentadas por falta de personal o capacidades.
+- Estrategias implementadas para compensar posibles deficiencias en recursos humanos.</t>
+  </si>
+  <si>
+    <t>- # de personas involucradas en cada organización y rol que desempeñan.
+- Promedio de horas dedicadas por persona al acompañamiento y administración de recursos PTF.
+- Razón de participantes por facilitador en capacitaciones o asistencia técnica.</t>
+  </si>
+  <si>
+    <t>- Porcentaje de OA que reportan disponibilidad suficiente a tecnología.
+- Frecuencia de uso de los recursos tecnológicos en las actividades del programa.</t>
+  </si>
+  <si>
+    <t>- Percepción sobre la adecuación de la tecnología a las necesidades.
+- Dificultades técnicas experimentadas.
+- Percepción del efecto de la tecnología en la eficiencia del trabajo.
+- Estrategias para mitigar la falta de tecnología (e.g. uso de alternativas, apoyo de terceros).</t>
+  </si>
+  <si>
+    <t>- ¿Son suficientes y adecuados los recursos humanos con que cuentan las OA para el desarrollo del acompañamiento y los proyectos?</t>
+  </si>
+  <si>
+    <t>- ¿Son adecuados y suficientes los recursos tecnológicos disponibles para la OA para el desarrollo del modelo de acompañamiento PTF?</t>
+  </si>
+  <si>
+    <t>- ¿Son adecuados y suficientes los recursos financieros asignados para la implementación de los proyectos?
+- ¿Es eficiente y accesible el proceso de gestión y transferencia de los recursos financieros?</t>
+  </si>
+  <si>
+    <t>- Monto total de fondos asignados por OA y por proyecto.
+- % de OA que consideran los fondos suficientes.
+- % de OB que consideran los fondos suficientes.
+- Presupuestado, vs. recibido, vs. ejecutado.
+- Tiempo promedio entre la solicitud y la recepción de fondos.
+- # de organizaciones que han experimentado retrasos en los desembolsos.
+- % de organizaciones que consideran claros los procedimientos financieros.
+- # de horas dedicadas a la gestión administrativa de los recursos.</t>
+  </si>
+  <si>
+    <t>- Percepción sobre la suficiencia de los fondos en relación con las necesidades.
+- Dificultades encontradas en la ejecución financiera (demoras, restricciones, burocracia).
+- Estrategias utilizadas para complementar recursos financieros.
+- Impacto de la disponibilidad de fondos en la planificación y ejecución del proyecto.
+- Facilidad percibida en la gestión de los recursos financieros.</t>
+  </si>
+  <si>
+    <t>- Número de organizaciones que recibieron apoyo específico en el seguimiento de sus proyectos para los informes.
+- Cantidad de recomendaciones o ajustes solicitados en los informes relacionados con el seguimiento.
+- Tiempo promedio dedicado por las organizaciones a recopilar información de seguimiento para los informes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Percepción sobre la claridad de las directrices para incluir en los informes.
+- Dificultades encontradas en la recopilación de datos para los informes (falta de herramientas, tiempo, personal capacitado).
+- Utilidad percibida de la asistencia en el seguimiento y presentación de informes.</t>
+  </si>
+  <si>
+    <t>-¿En qué medida se ejecutó la asistencia y qué dificultades se identificaron en el proceso?</t>
+  </si>
+  <si>
+    <t>- ¿Los recursos fueron entregados de manera fluida y sin interrupciones?
+- ¿Los recursos estaban sujetos a condiciones específicas para su uso?
+- ¿Los recursos fueron entregados en efectivo o en especie?</t>
+  </si>
+  <si>
+    <t>- Número de sesiones, capacitaciones o actividades realizadas.
+- Porcentaje de organizaciones participantes en al menos una actividad de fortalecimiento.
+- Número de facilitadores o expertos involucrados en el proceso.
+- Duración total del proceso de fortalecimiento (en meses, semanas, horas).</t>
+  </si>
+  <si>
+    <t>Documentar la ejecución y alcance del fortalecimiento</t>
+  </si>
+  <si>
+    <t>- Dificultades encontradas en la implementación del proceso.
+- Relevancia de los temas abordados en relación con las necesidades de las organizaciones.
+- Sugerencias de mejora para futuros procesos de fortalecimiento.</t>
+  </si>
+  <si>
     <t xml:space="preserve">- % reportado de la percepción de la contribución relativa de las recomendaciones sobre la autonomía
-- </t>
+</t>
+  </si>
+  <si>
+    <t>- Se implementaron las recomendaciones
+- cuáles sí, cuáles no?
+- por qué no se implementaron las que no?
+- efecto desborde más allá de informes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -424,7 +504,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -436,13 +516,27 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -466,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +596,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +976,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
@@ -877,7 +985,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -886,7 +994,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -895,215 +1003,260 @@
     </row>
     <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
+      <c r="H13" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -1123,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4:I4"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,9 +1325,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1183,69 +1336,70 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="145" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1254,21 +1408,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1277,27 +1437,27 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1306,206 +1466,264 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>59</v>
+      <c r="I10" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E58" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:E60" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
